--- a/江西/导出模板/市场化,月内连续融合合同分析结果.xlsx
+++ b/江西/导出模板/市场化,月内连续融合合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C3CD49-9D96-44B3-9D9B-39A3FF9B1FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E75A61CB-A2DD-4153-AA13-739A04EA9097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>82.971423474605103</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>149100.4767096774</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="F12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="G12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="H12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="I12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="J12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="K12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="L12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="M12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="N12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="O12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="P12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="Q12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="R12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="S12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="T12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="U12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="V12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="W12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="X12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="Y12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="Z12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="AA12">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>6212.5198629032257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>283.90322580645142</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="F13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="G13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="H13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="I13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="J13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="K13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="L13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="M13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="N13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="O13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="P13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="Q13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="R13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="S13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="T13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="U13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="V13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="W13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="X13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="Y13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="Z13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="AA13">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>11.829301075268816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>525.18063606408396</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="F14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="G14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="H14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="I14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="J14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="K14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="L14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="M14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="N14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="O14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="P14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="Q14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="R14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="S14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="T14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="U14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="V14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="W14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="X14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="Y14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="Z14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="AA14">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>525.18063606408361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>450.64998436493988</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>365.22093861493022</v>
+      </c>
+      <c r="F15">
+        <v>457.52854655720944</v>
+      </c>
+      <c r="G15">
+        <v>384.93254610271561</v>
+      </c>
+      <c r="H15">
+        <v>292.8389035905011</v>
+      </c>
+      <c r="I15">
+        <v>346.75169838654699</v>
+      </c>
+      <c r="J15">
+        <v>366.92290140324963</v>
+      </c>
+      <c r="K15">
+        <v>402.19719185319849</v>
+      </c>
+      <c r="L15">
+        <v>536.63790444267693</v>
+      </c>
+      <c r="M15">
+        <v>483.31097835473236</v>
+      </c>
+      <c r="N15">
+        <v>498.97320264742649</v>
+      </c>
+      <c r="O15">
+        <v>412.89838177479834</v>
+      </c>
+      <c r="P15">
+        <v>388.65456033405297</v>
+      </c>
+      <c r="Q15">
+        <v>401.33004735257356</v>
+      </c>
+      <c r="R15">
+        <v>411.3834320815817</v>
+      </c>
+      <c r="S15">
+        <v>434.3977871264629</v>
+      </c>
+      <c r="T15">
+        <v>470.57731513464387</v>
+      </c>
+      <c r="U15">
+        <v>452.76385038631975</v>
+      </c>
+      <c r="V15">
+        <v>512.28880425519822</v>
+      </c>
+      <c r="W15">
+        <v>535.68442784910815</v>
+      </c>
+      <c r="X15">
+        <v>549.67105016475398</v>
+      </c>
+      <c r="Y15">
+        <v>543.23683720599945</v>
+      </c>
+      <c r="Z15">
+        <v>591.65909069992051</v>
+      </c>
+      <c r="AA15">
+        <v>540.05962214521082</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>435.67960629473919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>74.530651699144073</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>159.9596974491534</v>
+      </c>
+      <c r="F16">
+        <v>67.652089506874177</v>
+      </c>
+      <c r="G16">
+        <v>140.24808996136801</v>
+      </c>
+      <c r="H16">
+        <v>232.34173247358251</v>
+      </c>
+      <c r="I16">
+        <v>178.42893767753662</v>
+      </c>
+      <c r="J16">
+        <v>158.25773466083399</v>
+      </c>
+      <c r="K16">
+        <v>122.98344421088512</v>
+      </c>
+      <c r="L16">
+        <v>-11.457268378593312</v>
+      </c>
+      <c r="M16">
+        <v>41.869657709351259</v>
+      </c>
+      <c r="N16">
+        <v>26.207433416657125</v>
+      </c>
+      <c r="O16">
+        <v>112.28225428928528</v>
+      </c>
+      <c r="P16">
+        <v>136.52607573003064</v>
+      </c>
+      <c r="Q16">
+        <v>123.85058871151006</v>
+      </c>
+      <c r="R16">
+        <v>113.79720398250191</v>
+      </c>
+      <c r="S16">
+        <v>90.782848937620713</v>
+      </c>
+      <c r="T16">
+        <v>54.603320929439747</v>
+      </c>
+      <c r="U16">
+        <v>72.416785677763869</v>
+      </c>
+      <c r="V16">
+        <v>12.891831808885399</v>
+      </c>
+      <c r="W16">
+        <v>-10.503791785024532</v>
+      </c>
+      <c r="X16">
+        <v>-24.490414100670364</v>
+      </c>
+      <c r="Y16">
+        <v>-18.056201141915835</v>
+      </c>
+      <c r="Z16">
+        <v>-66.478454635836897</v>
+      </c>
+      <c r="AA16">
+        <v>-14.878986081127209</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>89.501029769344427</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>149100.4767096774</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="F8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="G8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="H8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="I8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="J8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="K8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="L8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="M8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="N8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="O8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="P8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="Q8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="R8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="S8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="T8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="U8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="V8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="W8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="X8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="Y8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="Z8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="AA8">
+        <v>6212.5198629032257</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>6212.5198629032257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>127940.98427083333</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>4320.3084418682802</v>
+      </c>
+      <c r="F9">
+        <v>5412.2429277553765</v>
+      </c>
+      <c r="G9">
+        <v>4553.4829815188168</v>
+      </c>
+      <c r="H9">
+        <v>3464.0795571236558</v>
+      </c>
+      <c r="I9">
+        <v>4101.8302385752686</v>
+      </c>
+      <c r="J9">
+        <v>4340.4414721102148</v>
+      </c>
+      <c r="K9">
+        <v>4757.7116740591391</v>
+      </c>
+      <c r="L9">
+        <v>6348.0513400537629</v>
+      </c>
+      <c r="M9">
+        <v>5717.2310759408592</v>
+      </c>
+      <c r="N9">
+        <v>5902.504242607527</v>
+      </c>
+      <c r="O9">
+        <v>4884.2992715053761</v>
+      </c>
+      <c r="P9">
+        <v>4597.5118084677415</v>
+      </c>
+      <c r="Q9">
+        <v>4747.4539606854833</v>
+      </c>
+      <c r="R9">
+        <v>4866.3784754704302</v>
+      </c>
+      <c r="S9">
+        <v>5138.622210349462</v>
+      </c>
+      <c r="T9">
+        <v>5566.600739919355</v>
+      </c>
+      <c r="U9">
+        <v>5355.8799022177418</v>
+      </c>
+      <c r="V9">
+        <v>6060.0185030241928</v>
+      </c>
+      <c r="W9">
+        <v>6336.772378360215</v>
+      </c>
+      <c r="X9">
+        <v>6502.224344758064</v>
+      </c>
+      <c r="Y9">
+        <v>6426.1121024865597</v>
+      </c>
+      <c r="Z9">
+        <v>6998.9135178091401</v>
+      </c>
+      <c r="AA9">
+        <v>6388.5278689516126</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>5153.785235215053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>1892.2114210349455</v>
+      </c>
+      <c r="F10">
+        <v>800.27693514784914</v>
+      </c>
+      <c r="G10">
+        <v>1659.0368813844088</v>
+      </c>
+      <c r="H10">
+        <v>2748.4403057795698</v>
+      </c>
+      <c r="I10">
+        <v>2110.6896243279571</v>
+      </c>
+      <c r="J10">
+        <v>1872.0783907930108</v>
+      </c>
+      <c r="K10">
+        <v>1454.8081888440865</v>
+      </c>
+      <c r="L10">
+        <v>-135.53147715053728</v>
+      </c>
+      <c r="M10">
+        <v>495.28878696236643</v>
+      </c>
+      <c r="N10">
+        <v>310.01562029569868</v>
+      </c>
+      <c r="O10">
+        <v>1328.2205913978496</v>
+      </c>
+      <c r="P10">
+        <v>1615.0080544354842</v>
+      </c>
+      <c r="Q10">
+        <v>1465.0659022177424</v>
+      </c>
+      <c r="R10">
+        <v>1346.1413874327955</v>
+      </c>
+      <c r="S10">
+        <v>1073.8976525537637</v>
+      </c>
+      <c r="T10">
+        <v>645.91912298387069</v>
+      </c>
+      <c r="U10">
+        <v>856.63996068548386</v>
+      </c>
+      <c r="V10">
+        <v>152.50135987903286</v>
+      </c>
+      <c r="W10">
+        <v>-124.25251545698939</v>
+      </c>
+      <c r="X10">
+        <v>-289.70448185483838</v>
+      </c>
+      <c r="Y10">
+        <v>-213.59223958333405</v>
+      </c>
+      <c r="Z10">
+        <v>-786.39365490591445</v>
+      </c>
+      <c r="AA10">
+        <v>-176.00800604838696</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1058.7346276881726</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>442.20921258947851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>283.90322580645142</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="F8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="G8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="H8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="I8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="J8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="K8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="L8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="M8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="N8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="O8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="P8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="Q8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="R8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="S8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="T8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="U8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="V8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="W8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="X8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="Y8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="Z8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="AA8">
+        <v>11.829301075268816</v>
+      </c>
+      <c r="AB8">
+        <v>11.829301075268816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>525.18063606408396</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="F9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="G9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="H9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="I9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="J9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="K9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="L9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="M9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="N9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="O9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="P9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="Q9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="R9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="S9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="T9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="U9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="V9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="W9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="X9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="Y9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="Z9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="AA9">
+        <v>525.18063606408361</v>
+      </c>
+      <c r="AB9">
+        <v>525.18063606408361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>450.64998436493988</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>365.22093861493022</v>
+      </c>
+      <c r="F10">
+        <v>457.52854655720944</v>
+      </c>
+      <c r="G10">
+        <v>384.93254610271561</v>
+      </c>
+      <c r="H10">
+        <v>292.8389035905011</v>
+      </c>
+      <c r="I10">
+        <v>346.75169838654699</v>
+      </c>
+      <c r="J10">
+        <v>366.92290140324963</v>
+      </c>
+      <c r="K10">
+        <v>402.19719185319849</v>
+      </c>
+      <c r="L10">
+        <v>536.63790444267693</v>
+      </c>
+      <c r="M10">
+        <v>483.31097835473236</v>
+      </c>
+      <c r="N10">
+        <v>498.97320264742649</v>
+      </c>
+      <c r="O10">
+        <v>412.89838177479834</v>
+      </c>
+      <c r="P10">
+        <v>388.65456033405297</v>
+      </c>
+      <c r="Q10">
+        <v>401.33004735257356</v>
+      </c>
+      <c r="R10">
+        <v>411.3834320815817</v>
+      </c>
+      <c r="S10">
+        <v>434.3977871264629</v>
+      </c>
+      <c r="T10">
+        <v>470.57731513464387</v>
+      </c>
+      <c r="U10">
+        <v>452.76385038631975</v>
+      </c>
+      <c r="V10">
+        <v>512.28880425519822</v>
+      </c>
+      <c r="W10">
+        <v>535.68442784910815</v>
+      </c>
+      <c r="X10">
+        <v>549.67105016475398</v>
+      </c>
+      <c r="Y10">
+        <v>543.23683720599945</v>
+      </c>
+      <c r="Z10">
+        <v>591.65909069992051</v>
+      </c>
+      <c r="AA10">
+        <v>540.05962214521082</v>
+      </c>
+      <c r="AB10">
+        <v>435.67960629473919</v>
       </c>
     </row>
   </sheetData>
